--- a/public/downloads/Template Files/Accounts List Report Result.xlsx
+++ b/public/downloads/Template Files/Accounts List Report Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMG\Documents\Task\1-26~Excel Link\Template Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814864ED-718B-47CA-B2CB-13B7B002164E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153BE5AE-D0B6-4297-B18C-94C48F05C19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1673,11 +1673,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1704,20 +1703,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2754,67 +2753,68 @@
   <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="str">
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>A Test</v>
       </c>
-      <c r="B2" s="3" t="str">
+      <c r="B2" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>1111</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -2822,38 +2822,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G2" s="3" t="str">
+      <c r="G2" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H2" s="3" t="str">
+      <c r="H2" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I2" s="3" t="str">
+      <c r="I2" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="str">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>A1 Test</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>2222</v>
       </c>
-      <c r="D3" s="3" t="str">
+      <c r="D3" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -2861,38 +2861,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="str">
+      <c r="F3" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G3" s="3" t="str">
+      <c r="G3" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H3" s="3" t="str">
+      <c r="H3" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I3" s="3" t="str">
+      <c r="I3" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="str">
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>A2 Test</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>3333</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -2900,38 +2900,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="G4" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="str">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>A3 Test</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B5" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>333</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EQUITY</v>
       </c>
@@ -2939,38 +2939,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="F5" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G5" s="3" t="str">
+      <c r="G5" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I5" s="3" t="str">
+      <c r="I5" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="str">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>A4 Test</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="B6" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>444</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>AP</v>
       </c>
@@ -2978,38 +2978,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="F6" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G6" s="3" t="str">
+      <c r="G6" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I6" s="3" t="str">
+      <c r="I6" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="str">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>A5 Test</v>
       </c>
-      <c r="B7" s="3" t="str">
+      <c r="B7" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>555</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>AP</v>
       </c>
@@ -3017,38 +3017,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="F7" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G7" s="3" t="str">
+      <c r="G7" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="str">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>A6 Test</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="B8" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="C8" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>666</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="D8" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>AR</v>
       </c>
@@ -3056,38 +3056,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="str">
+      <c r="F8" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G8" s="3" t="str">
+      <c r="G8" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I8" s="3" t="str">
+      <c r="I8" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="str">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>A7 Test</v>
       </c>
-      <c r="B9" s="3" t="str">
+      <c r="B9" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C9" s="3" t="str">
+      <c r="C9" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>777</v>
       </c>
-      <c r="D9" s="3" t="str">
+      <c r="D9" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>AR</v>
       </c>
@@ -3095,38 +3095,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="str">
+      <c r="F9" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G9" s="3" t="str">
+      <c r="G9" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I9" s="3" t="str">
+      <c r="I9" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="str">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Acc Depreciation</v>
       </c>
-      <c r="B10" s="3" t="str">
+      <c r="B10" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Acc Depreciation</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C10" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D10" s="3" t="str">
+      <c r="D10" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>FIXASSET</v>
       </c>
@@ -3134,38 +3134,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="str">
+      <c r="F10" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G10" s="3" t="str">
+      <c r="G10" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H10" s="3" t="str">
+      <c r="H10" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I10" s="3" t="str">
+      <c r="I10" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="str">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Accounting fees</v>
       </c>
-      <c r="B11" s="3" t="str">
+      <c r="B11" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Accounting Fees</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>6650</v>
       </c>
-      <c r="D11" s="3" t="str">
+      <c r="D11" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -3173,38 +3173,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>590</v>
       </c>
-      <c r="F11" s="3" t="str">
+      <c r="F11" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G11" s="3" t="str">
+      <c r="G11" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H11" s="3" t="str">
+      <c r="H11" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I11" s="3" t="str">
+      <c r="I11" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="str">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Accounts Payable</v>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B12" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>2000</v>
       </c>
-      <c r="D12" s="3" t="str">
+      <c r="D12" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>AP</v>
       </c>
@@ -3212,38 +3212,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>-437154.71</v>
       </c>
-      <c r="F12" s="3" t="str">
+      <c r="F12" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G12" s="3" t="str">
+      <c r="G12" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H12" s="3" t="str">
+      <c r="H12" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I12" s="3" t="str">
+      <c r="I12" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="str">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Accounts Receivable</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>456</v>
       </c>
-      <c r="D13" s="3" t="str">
+      <c r="D13" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>AR</v>
       </c>
@@ -3251,38 +3251,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>1438310.18</v>
       </c>
-      <c r="F13" s="3" t="str">
+      <c r="F13" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G13" s="3" t="str">
+      <c r="G13" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H13" s="3" t="str">
+      <c r="H13" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I13" s="3" t="str">
+      <c r="I13" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="str">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Accumulated Depreciation</v>
       </c>
-      <c r="B14" s="3" t="str">
+      <c r="B14" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D14" s="3" t="str">
+      <c r="D14" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>FIXASSET</v>
       </c>
@@ -3290,38 +3290,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="str">
+      <c r="F14" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G14" s="3" t="str">
+      <c r="G14" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H14" s="3" t="str">
+      <c r="H14" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I14" s="3" t="str">
+      <c r="I14" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="str">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Adj</v>
       </c>
-      <c r="B15" s="3" t="str">
+      <c r="B15" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C15" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D15" s="3" t="str">
+      <c r="D15" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -3329,38 +3329,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="str">
+      <c r="F15" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G15" s="3" t="str">
+      <c r="G15" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H15" s="3" t="str">
+      <c r="H15" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I15" s="3" t="str">
+      <c r="I15" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="str">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Adjustments</v>
       </c>
-      <c r="B16" s="3" t="str">
+      <c r="B16" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C16" s="3" t="str">
+      <c r="C16" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D16" s="3" t="str">
+      <c r="D16" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -3368,38 +3368,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>-894.64</v>
       </c>
-      <c r="F16" s="3" t="str">
+      <c r="F16" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G16" s="3" t="str">
+      <c r="G16" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H16" s="3" t="str">
+      <c r="H16" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I16" s="3" t="str">
+      <c r="I16" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="str">
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Admin Fee (Credit Card)</v>
       </c>
-      <c r="B17" s="3" t="str">
+      <c r="B17" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C17" s="3" t="str">
+      <c r="C17" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D17" s="3" t="str">
+      <c r="D17" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -3407,38 +3407,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>450</v>
       </c>
-      <c r="F17" s="3" t="str">
+      <c r="F17" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G17" s="3" t="str">
+      <c r="G17" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H17" s="3" t="str">
+      <c r="H17" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I17" s="3" t="str">
+      <c r="I17" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="str">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Advertising</v>
       </c>
-      <c r="B18" s="3" t="str">
+      <c r="B18" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C18" s="3" t="str">
+      <c r="C18" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D18" s="3" t="str">
+      <c r="D18" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -3446,38 +3446,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>13549.4601</v>
       </c>
-      <c r="F18" s="3" t="str">
+      <c r="F18" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G18" s="3" t="str">
+      <c r="G18" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H18" s="3" t="str">
+      <c r="H18" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I18" s="3" t="str">
+      <c r="I18" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="str">
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Allowance Paid</v>
       </c>
-      <c r="B19" s="3" t="str">
+      <c r="B19" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Allowances Paid</v>
       </c>
-      <c r="C19" s="3" t="str">
+      <c r="C19" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D19" s="3" t="str">
+      <c r="D19" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -3485,38 +3485,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>594.32000000000005</v>
       </c>
-      <c r="F19" s="3" t="str">
+      <c r="F19" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>FRE</v>
       </c>
-      <c r="G19" s="3" t="str">
+      <c r="G19" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H19" s="3" t="str">
+      <c r="H19" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I19" s="3" t="str">
+      <c r="I19" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="str">
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Allowances</v>
       </c>
-      <c r="B20" s="3" t="str">
+      <c r="B20" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C20" s="3" t="str">
+      <c r="C20" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D20" s="3" t="str">
+      <c r="D20" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -3524,38 +3524,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>-1390.91</v>
       </c>
-      <c r="F20" s="3" t="str">
+      <c r="F20" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G20" s="3" t="str">
+      <c r="G20" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H20" s="3" t="str">
+      <c r="H20" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I20" s="3" t="str">
+      <c r="I20" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="str">
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Amex</v>
       </c>
-      <c r="B21" s="3" t="str">
+      <c r="B21" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C21" s="3" t="str">
+      <c r="C21" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D21" s="3" t="str">
+      <c r="D21" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>CCARD</v>
       </c>
@@ -3563,38 +3563,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>-100</v>
       </c>
-      <c r="F21" s="3" t="str">
+      <c r="F21" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G21" s="3" t="str">
+      <c r="G21" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H21" s="3" t="str">
+      <c r="H21" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I21" s="3" t="str">
+      <c r="I21" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="str">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Bad debts</v>
       </c>
-      <c r="B22" s="3" t="str">
+      <c r="B22" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C22" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D22" s="3" t="str">
+      <c r="D22" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -3602,38 +3602,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>1850</v>
       </c>
-      <c r="F22" s="3" t="str">
+      <c r="F22" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G22" s="3" t="str">
+      <c r="G22" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H22" s="3" t="str">
+      <c r="H22" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I22" s="3" t="str">
+      <c r="I22" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="str">
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Bank</v>
       </c>
-      <c r="B23" s="3" t="str">
+      <c r="B23" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="C23" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>2345</v>
       </c>
-      <c r="D23" s="3" t="str">
+      <c r="D23" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>BANK</v>
       </c>
@@ -3641,38 +3641,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>194286.14</v>
       </c>
-      <c r="F23" s="3" t="str">
+      <c r="F23" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G23" s="3" t="str">
+      <c r="G23" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v>VS1 Cloud</v>
       </c>
-      <c r="H23" s="3" t="str">
+      <c r="H23" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v>025888</v>
       </c>
-      <c r="I23" s="3" t="str">
+      <c r="I23" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v>123456789</v>
       </c>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="str">
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Bank fees &amp; charges</v>
       </c>
-      <c r="B24" s="3" t="str">
+      <c r="B24" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="C24" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D24" s="3" t="str">
+      <c r="D24" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -3680,38 +3680,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>-45</v>
       </c>
-      <c r="F24" s="3" t="str">
+      <c r="F24" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G24" s="3" t="str">
+      <c r="G24" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H24" s="3" t="str">
+      <c r="H24" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I24" s="3" t="str">
+      <c r="I24" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="str">
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Bank Interest</v>
       </c>
-      <c r="B25" s="3" t="str">
+      <c r="B25" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Income from bank accounts</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D25" s="3" t="str">
+      <c r="D25" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>INC</v>
       </c>
@@ -3719,38 +3719,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>-130</v>
       </c>
-      <c r="F25" s="3" t="str">
+      <c r="F25" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>FRE</v>
       </c>
-      <c r="G25" s="3" t="str">
+      <c r="G25" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H25" s="3" t="str">
+      <c r="H25" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I25" s="3" t="str">
+      <c r="I25" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="str">
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Burden COGS</v>
       </c>
-      <c r="B26" s="3" t="str">
+      <c r="B26" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C26" s="3" t="str">
+      <c r="C26" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D26" s="3" t="str">
+      <c r="D26" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>COGS</v>
       </c>
@@ -3758,38 +3758,38 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F26" s="3" t="str">
+      <c r="F26" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G26" s="3" t="str">
+      <c r="G26" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H26" s="3" t="str">
+      <c r="H26" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I26" s="3" t="str">
+      <c r="I26" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="str">
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Burden Expense</v>
       </c>
-      <c r="B27" s="3" t="str">
+      <c r="B27" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="C27" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D27" s="3" t="str">
+      <c r="D27" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -3797,37 +3797,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F27" s="3" t="str">
+      <c r="F27" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G27" s="3" t="str">
+      <c r="G27" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H27" s="3" t="str">
+      <c r="H27" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I27" s="3" t="str">
+      <c r="I27" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="str">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Car Expenses Header</v>
       </c>
-      <c r="B28" s="3" t="str">
+      <c r="B28" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Car Expenses Header</v>
       </c>
-      <c r="C28" s="3" t="str">
+      <c r="C28" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D28" s="3" t="str">
+      <c r="D28" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -3835,37 +3835,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F28" s="3" t="str">
+      <c r="F28" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G28" s="3" t="str">
+      <c r="G28" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H28" s="3" t="str">
+      <c r="H28" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I28" s="3" t="str">
+      <c r="I28" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="str">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Cash</v>
       </c>
-      <c r="B29" s="3" t="str">
+      <c r="B29" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C29" s="3" t="str">
+      <c r="C29" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D29" s="3" t="str">
+      <c r="D29" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -3873,37 +3873,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>500</v>
       </c>
-      <c r="F29" s="3" t="str">
+      <c r="F29" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G29" s="3" t="str">
+      <c r="G29" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H29" s="3" t="str">
+      <c r="H29" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I29" s="3" t="str">
+      <c r="I29" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Cash Discounts</v>
       </c>
-      <c r="B30" s="3" t="str">
+      <c r="B30" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Cash Discounts</v>
       </c>
-      <c r="C30" s="3" t="str">
+      <c r="C30" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D30" s="3" t="str">
+      <c r="D30" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -3911,37 +3911,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F30" s="3" t="str">
+      <c r="F30" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G30" s="3" t="str">
+      <c r="G30" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H30" s="3" t="str">
+      <c r="H30" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I30" s="3" t="str">
+      <c r="I30" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="str">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Cleaning</v>
       </c>
-      <c r="B31" s="3" t="str">
+      <c r="B31" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Cleaning Expense</v>
       </c>
-      <c r="C31" s="3" t="str">
+      <c r="C31" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>6145</v>
       </c>
-      <c r="D31" s="3" t="str">
+      <c r="D31" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -3949,37 +3949,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>345.45</v>
       </c>
-      <c r="F31" s="3" t="str">
+      <c r="F31" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G31" s="3" t="str">
+      <c r="G31" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H31" s="3" t="str">
+      <c r="H31" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I31" s="3" t="str">
+      <c r="I31" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="str">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Clearing</v>
       </c>
-      <c r="B32" s="3" t="str">
+      <c r="B32" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C32" s="3" t="str">
+      <c r="C32" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D32" s="3" t="str">
+      <c r="D32" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>FIXASSET</v>
       </c>
@@ -3987,37 +3987,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="str">
+      <c r="F32" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G32" s="3" t="str">
+      <c r="G32" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H32" s="3" t="str">
+      <c r="H32" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I32" s="3" t="str">
+      <c r="I32" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="str">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Clearing Bank</v>
       </c>
-      <c r="B33" s="3" t="str">
+      <c r="B33" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C33" s="3" t="str">
+      <c r="C33" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>2323232</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>FIXASSET</v>
       </c>
@@ -4025,37 +4025,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>-140198.18179999999</v>
       </c>
-      <c r="F33" s="3" t="str">
+      <c r="F33" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G33" s="3" t="str">
+      <c r="G33" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H33" s="3" t="str">
+      <c r="H33" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I33" s="3" t="str">
+      <c r="I33" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="str">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Coghlin Tools Loan</v>
       </c>
-      <c r="B34" s="3" t="str">
+      <c r="B34" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Advance to purchase tools</v>
       </c>
-      <c r="C34" s="3" t="str">
+      <c r="C34" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D34" s="3" t="str">
+      <c r="D34" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCASSET</v>
       </c>
@@ -4063,37 +4063,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>170</v>
       </c>
-      <c r="F34" s="3" t="str">
+      <c r="F34" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>CAG</v>
       </c>
-      <c r="G34" s="3" t="str">
+      <c r="G34" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H34" s="3" t="str">
+      <c r="H34" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I34" s="3" t="str">
+      <c r="I34" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="str">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>COGS for Reward Points</v>
       </c>
-      <c r="B35" s="3" t="str">
+      <c r="B35" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C35" s="3" t="str">
+      <c r="C35" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D35" s="3" t="str">
+      <c r="D35" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>COGS</v>
       </c>
@@ -4101,37 +4101,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F35" s="3" t="str">
+      <c r="F35" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G35" s="3" t="str">
+      <c r="G35" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H35" s="3" t="str">
+      <c r="H35" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I35" s="3" t="str">
+      <c r="I35" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="str">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Commission Paid</v>
       </c>
-      <c r="B36" s="3" t="str">
+      <c r="B36" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C36" s="3" t="str">
+      <c r="C36" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D36" s="3" t="str">
+      <c r="D36" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -4139,37 +4139,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F36" s="3" t="str">
+      <c r="F36" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G36" s="3" t="str">
+      <c r="G36" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H36" s="3" t="str">
+      <c r="H36" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I36" s="3" t="str">
+      <c r="I36" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="str">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Commission Payments</v>
       </c>
-      <c r="B37" s="3" t="str">
+      <c r="B37" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C37" s="3" t="str">
+      <c r="C37" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>12123</v>
       </c>
-      <c r="D37" s="3" t="str">
+      <c r="D37" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -4177,37 +4177,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F37" s="3" t="str">
+      <c r="F37" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G37" s="3" t="str">
+      <c r="G37" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H37" s="3" t="str">
+      <c r="H37" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I37" s="3" t="str">
+      <c r="I37" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="str">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Computer maintenance</v>
       </c>
-      <c r="B38" s="3" t="str">
+      <c r="B38" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C38" s="3" t="str">
+      <c r="C38" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D38" s="3" t="str">
+      <c r="D38" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -4215,37 +4215,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F38" s="3" t="str">
+      <c r="F38" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G38" s="3" t="str">
+      <c r="G38" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H38" s="3" t="str">
+      <c r="H38" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I38" s="3" t="str">
+      <c r="I38" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="str">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Computer Repairs</v>
       </c>
-      <c r="B39" s="3" t="str">
+      <c r="B39" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Computer Repairs</v>
       </c>
-      <c r="C39" s="3" t="str">
+      <c r="C39" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>6320</v>
       </c>
-      <c r="D39" s="3" t="str">
+      <c r="D39" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -4253,37 +4253,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>250</v>
       </c>
-      <c r="F39" s="3" t="str">
+      <c r="F39" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G39" s="3" t="str">
+      <c r="G39" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H39" s="3" t="str">
+      <c r="H39" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I39" s="3" t="str">
+      <c r="I39" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="str">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Cost of Goods Sold</v>
       </c>
-      <c r="B40" s="3" t="str">
+      <c r="B40" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C40" s="3" t="str">
+      <c r="C40" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>5000</v>
       </c>
-      <c r="D40" s="3" t="str">
+      <c r="D40" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>COGS</v>
       </c>
@@ -4291,37 +4291,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>965102.45175000001</v>
       </c>
-      <c r="F40" s="3" t="str">
+      <c r="F40" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G40" s="3" t="str">
+      <c r="G40" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H40" s="3" t="str">
+      <c r="H40" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I40" s="3" t="str">
+      <c r="I40" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="str">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Courier</v>
       </c>
-      <c r="B41" s="3" t="str">
+      <c r="B41" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C41" s="3" t="str">
+      <c r="C41" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D41" s="3" t="str">
+      <c r="D41" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -4329,37 +4329,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>20</v>
       </c>
-      <c r="F41" s="3" t="str">
+      <c r="F41" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G41" s="3" t="str">
+      <c r="G41" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H41" s="3" t="str">
+      <c r="H41" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I41" s="3" t="str">
+      <c r="I41" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="str">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Customer Prepayments</v>
       </c>
-      <c r="B42" s="3" t="str">
+      <c r="B42" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C42" s="3" t="str">
+      <c r="C42" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D42" s="3" t="str">
+      <c r="D42" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -4367,37 +4367,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>17175.75</v>
       </c>
-      <c r="F42" s="3" t="str">
+      <c r="F42" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G42" s="3" t="str">
+      <c r="G42" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H42" s="3" t="str">
+      <c r="H42" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I42" s="3" t="str">
+      <c r="I42" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="str">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Deduction Paid</v>
       </c>
-      <c r="B43" s="3" t="str">
+      <c r="B43" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C43" s="3" t="str">
+      <c r="C43" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D43" s="3" t="str">
+      <c r="D43" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -4405,37 +4405,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="str">
+      <c r="F43" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G43" s="3" t="str">
+      <c r="G43" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H43" s="3" t="str">
+      <c r="H43" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I43" s="3" t="str">
+      <c r="I43" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="str">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Deductions</v>
       </c>
-      <c r="B44" s="3" t="str">
+      <c r="B44" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C44" s="3" t="str">
+      <c r="C44" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D44" s="3" t="str">
+      <c r="D44" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -4443,37 +4443,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>20</v>
       </c>
-      <c r="F44" s="3" t="str">
+      <c r="F44" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G44" s="3" t="str">
+      <c r="G44" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H44" s="3" t="str">
+      <c r="H44" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I44" s="3" t="str">
+      <c r="I44" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="str">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Delivery</v>
       </c>
-      <c r="B45" s="3" t="str">
+      <c r="B45" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C45" s="3" t="str">
+      <c r="C45" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D45" s="3" t="str">
+      <c r="D45" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -4481,37 +4481,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>4045.0001000000002</v>
       </c>
-      <c r="F45" s="3" t="str">
+      <c r="F45" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G45" s="3" t="str">
+      <c r="G45" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H45" s="3" t="str">
+      <c r="H45" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I45" s="3" t="str">
+      <c r="I45" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="str">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Delivery2</v>
       </c>
-      <c r="B46" s="3" t="str">
+      <c r="B46" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Test A/c</v>
       </c>
-      <c r="C46" s="3" t="str">
+      <c r="C46" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D46" s="3" t="str">
+      <c r="D46" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -4519,37 +4519,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F46" s="3" t="str">
+      <c r="F46" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G46" s="3" t="str">
+      <c r="G46" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H46" s="3" t="str">
+      <c r="H46" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I46" s="3" t="str">
+      <c r="I46" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="str">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Depreciation</v>
       </c>
-      <c r="B47" s="3" t="str">
+      <c r="B47" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C47" s="3" t="str">
+      <c r="C47" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D47" s="3" t="str">
+      <c r="D47" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -4557,37 +4557,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F47" s="3" t="str">
+      <c r="F47" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G47" s="3" t="str">
+      <c r="G47" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H47" s="3" t="str">
+      <c r="H47" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I47" s="3" t="str">
+      <c r="I47" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="str">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Directors Drawings</v>
       </c>
-      <c r="B48" s="3" t="str">
+      <c r="B48" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C48" s="3" t="str">
+      <c r="C48" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D48" s="3" t="str">
+      <c r="D48" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EQUITY</v>
       </c>
@@ -4595,37 +4595,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>20000</v>
       </c>
-      <c r="F48" s="3" t="str">
+      <c r="F48" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G48" s="3" t="str">
+      <c r="G48" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H48" s="3" t="str">
+      <c r="H48" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I48" s="3" t="str">
+      <c r="I48" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="str">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Discount</v>
       </c>
-      <c r="B49" s="3" t="str">
+      <c r="B49" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Discount</v>
       </c>
-      <c r="C49" s="3" t="str">
+      <c r="C49" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D49" s="3" t="str">
+      <c r="D49" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -4633,37 +4633,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="str">
+      <c r="F49" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G49" s="3" t="str">
+      <c r="G49" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H49" s="3" t="str">
+      <c r="H49" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I49" s="3" t="str">
+      <c r="I49" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="str">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Duty</v>
       </c>
-      <c r="B50" s="3" t="str">
+      <c r="B50" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C50" s="3" t="str">
+      <c r="C50" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D50" s="3" t="str">
+      <c r="D50" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -4671,37 +4671,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>1.0249999999999999</v>
       </c>
-      <c r="F50" s="3" t="str">
+      <c r="F50" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G50" s="3" t="str">
+      <c r="G50" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H50" s="3" t="str">
+      <c r="H50" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I50" s="3" t="str">
+      <c r="I50" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="str">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Employee wages</v>
       </c>
-      <c r="B51" s="3" t="str">
+      <c r="B51" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C51" s="3" t="str">
+      <c r="C51" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D51" s="3" t="str">
+      <c r="D51" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -4709,37 +4709,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F51" s="3" t="str">
+      <c r="F51" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G51" s="3" t="str">
+      <c r="G51" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H51" s="3" t="str">
+      <c r="H51" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I51" s="3" t="str">
+      <c r="I51" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="str">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Entertainment Expenses</v>
       </c>
-      <c r="B52" s="3" t="str">
+      <c r="B52" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C52" s="3" t="str">
+      <c r="C52" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D52" s="3" t="str">
+      <c r="D52" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -4747,37 +4747,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="str">
+      <c r="F52" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G52" s="3" t="str">
+      <c r="G52" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H52" s="3" t="str">
+      <c r="H52" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I52" s="3" t="str">
+      <c r="I52" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="str">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Equip Depreciation</v>
       </c>
-      <c r="B53" s="3" t="str">
+      <c r="B53" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C53" s="3" t="str">
+      <c r="C53" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D53" s="3" t="str">
+      <c r="D53" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>FIXASSET</v>
       </c>
@@ -4785,37 +4785,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F53" s="3" t="str">
+      <c r="F53" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G53" s="3" t="str">
+      <c r="G53" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H53" s="3" t="str">
+      <c r="H53" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I53" s="3" t="str">
+      <c r="I53" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="str">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Equipment and furniture</v>
       </c>
-      <c r="B54" s="3" t="str">
+      <c r="B54" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C54" s="3" t="str">
+      <c r="C54" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D54" s="3" t="str">
+      <c r="D54" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>FIXASSET</v>
       </c>
@@ -4823,37 +4823,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>1400</v>
       </c>
-      <c r="F54" s="3" t="str">
+      <c r="F54" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G54" s="3" t="str">
+      <c r="G54" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H54" s="3" t="str">
+      <c r="H54" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I54" s="3" t="str">
+      <c r="I54" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="str">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Estimating fees</v>
       </c>
-      <c r="B55" s="3" t="str">
+      <c r="B55" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C55" s="3" t="str">
+      <c r="C55" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D55" s="3" t="str">
+      <c r="D55" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -4861,37 +4861,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>-909.09</v>
       </c>
-      <c r="F55" s="3" t="str">
+      <c r="F55" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G55" s="3" t="str">
+      <c r="G55" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H55" s="3" t="str">
+      <c r="H55" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I55" s="3" t="str">
+      <c r="I55" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="str">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>EToll</v>
       </c>
-      <c r="B56" s="3" t="str">
+      <c r="B56" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C56" s="3" t="str">
+      <c r="C56" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D56" s="3" t="str">
+      <c r="D56" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -4899,37 +4899,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>190</v>
       </c>
-      <c r="F56" s="3" t="str">
+      <c r="F56" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G56" s="3" t="str">
+      <c r="G56" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H56" s="3" t="str">
+      <c r="H56" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I56" s="3" t="str">
+      <c r="I56" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="str">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Fines &amp; penalties</v>
       </c>
-      <c r="B57" s="3" t="str">
+      <c r="B57" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C57" s="3" t="str">
+      <c r="C57" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D57" s="3" t="str">
+      <c r="D57" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -4937,37 +4937,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>-200</v>
       </c>
-      <c r="F57" s="3" t="str">
+      <c r="F57" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G57" s="3" t="str">
+      <c r="G57" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H57" s="3" t="str">
+      <c r="H57" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I57" s="3" t="str">
+      <c r="I57" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="str">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Fixed Asset Expenses</v>
       </c>
-      <c r="B58" s="3" t="str">
+      <c r="B58" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C58" s="3" t="str">
+      <c r="C58" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D58" s="3" t="str">
+      <c r="D58" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -4975,37 +4975,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>78466.350000000006</v>
       </c>
-      <c r="F58" s="3" t="str">
+      <c r="F58" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G58" s="3" t="str">
+      <c r="G58" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H58" s="3" t="str">
+      <c r="H58" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I58" s="3" t="str">
+      <c r="I58" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="str">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Fixed Assets</v>
       </c>
-      <c r="B59" s="3" t="str">
+      <c r="B59" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C59" s="3" t="str">
+      <c r="C59" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D59" s="3" t="str">
+      <c r="D59" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>FIXASSET</v>
       </c>
@@ -5013,37 +5013,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="str">
+      <c r="F59" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G59" s="3" t="str">
+      <c r="G59" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H59" s="3" t="str">
+      <c r="H59" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I59" s="3" t="str">
+      <c r="I59" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="str">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Ford Car Expense</v>
       </c>
-      <c r="B60" s="3" t="str">
+      <c r="B60" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C60" s="3" t="str">
+      <c r="C60" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D60" s="3" t="str">
+      <c r="D60" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -5051,37 +5051,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F60" s="3" t="str">
+      <c r="F60" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G60" s="3" t="str">
+      <c r="G60" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H60" s="3" t="str">
+      <c r="H60" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I60" s="3" t="str">
+      <c r="I60" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="str">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>General Assets</v>
       </c>
-      <c r="B61" s="3" t="str">
+      <c r="B61" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C61" s="3" t="str">
+      <c r="C61" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D61" s="3" t="str">
+      <c r="D61" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>FIXASSET</v>
       </c>
@@ -5089,37 +5089,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>100198.18180000001</v>
       </c>
-      <c r="F61" s="3" t="str">
+      <c r="F61" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G61" s="3" t="str">
+      <c r="G61" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H61" s="3" t="str">
+      <c r="H61" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I61" s="3" t="str">
+      <c r="I61" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="str">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>General Depreciation</v>
       </c>
-      <c r="B62" s="3" t="str">
+      <c r="B62" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C62" s="3" t="str">
+      <c r="C62" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D62" s="3" t="str">
+      <c r="D62" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>FIXASSET</v>
       </c>
@@ -5127,37 +5127,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>-14757.12</v>
       </c>
-      <c r="F62" s="3" t="str">
+      <c r="F62" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G62" s="3" t="str">
+      <c r="G62" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H62" s="3" t="str">
+      <c r="H62" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I62" s="3" t="str">
+      <c r="I62" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="str">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Goods Received</v>
       </c>
-      <c r="B63" s="3" t="str">
+      <c r="B63" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Goods Received</v>
       </c>
-      <c r="C63" s="3" t="str">
+      <c r="C63" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D63" s="3" t="str">
+      <c r="D63" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>AR</v>
       </c>
@@ -5165,37 +5165,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F63" s="3" t="str">
+      <c r="F63" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G63" s="3" t="str">
+      <c r="G63" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H63" s="3" t="str">
+      <c r="H63" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I63" s="3" t="str">
+      <c r="I63" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="str">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Goodwill</v>
       </c>
-      <c r="B64" s="3" t="str">
+      <c r="B64" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C64" s="3" t="str">
+      <c r="C64" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D64" s="3" t="str">
+      <c r="D64" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EQUITY</v>
       </c>
@@ -5203,37 +5203,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F64" s="3" t="str">
+      <c r="F64" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G64" s="3" t="str">
+      <c r="G64" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H64" s="3" t="str">
+      <c r="H64" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I64" s="3" t="str">
+      <c r="I64" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="str">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Gross Wages</v>
       </c>
-      <c r="B65" s="3" t="str">
+      <c r="B65" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C65" s="3" t="str">
+      <c r="C65" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D65" s="3" t="str">
+      <c r="D65" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -5241,37 +5241,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>66908.886899999998</v>
       </c>
-      <c r="F65" s="3" t="str">
+      <c r="F65" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G65" s="3" t="str">
+      <c r="G65" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H65" s="3" t="str">
+      <c r="H65" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I65" s="3" t="str">
+      <c r="I65" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="str">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Group Taxes</v>
       </c>
-      <c r="B66" s="3" t="str">
+      <c r="B66" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C66" s="3" t="str">
+      <c r="C66" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D66" s="3" t="str">
+      <c r="D66" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -5279,37 +5279,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F66" s="3" t="str">
+      <c r="F66" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G66" s="3" t="str">
+      <c r="G66" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H66" s="3" t="str">
+      <c r="H66" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I66" s="3" t="str">
+      <c r="I66" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="str">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>GST</v>
       </c>
-      <c r="B67" s="3" t="str">
+      <c r="B67" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C67" s="3" t="str">
+      <c r="C67" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D67" s="3" t="str">
+      <c r="D67" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -5317,37 +5317,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F67" s="3" t="str">
+      <c r="F67" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G67" s="3" t="str">
+      <c r="G67" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H67" s="3" t="str">
+      <c r="H67" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I67" s="3" t="str">
+      <c r="I67" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="str">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Handling</v>
       </c>
-      <c r="B68" s="3" t="str">
+      <c r="B68" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C68" s="3" t="str">
+      <c r="C68" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D68" s="3" t="str">
+      <c r="D68" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -5355,37 +5355,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0.82</v>
       </c>
-      <c r="F68" s="3" t="str">
+      <c r="F68" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G68" s="3" t="str">
+      <c r="G68" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H68" s="3" t="str">
+      <c r="H68" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I68" s="3" t="str">
+      <c r="I68" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="str">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Hire Income</v>
       </c>
-      <c r="B69" s="3" t="str">
+      <c r="B69" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C69" s="3" t="str">
+      <c r="C69" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D69" s="3" t="str">
+      <c r="D69" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>INC</v>
       </c>
@@ -5393,37 +5393,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>100</v>
       </c>
-      <c r="F69" s="3" t="str">
+      <c r="F69" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G69" s="3" t="str">
+      <c r="G69" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H69" s="3" t="str">
+      <c r="H69" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I69" s="3" t="str">
+      <c r="I69" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="str">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Insurance</v>
       </c>
-      <c r="B70" s="3" t="str">
+      <c r="B70" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Insurance</v>
       </c>
-      <c r="C70" s="3" t="str">
+      <c r="C70" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>6180</v>
       </c>
-      <c r="D70" s="3" t="str">
+      <c r="D70" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -5431,37 +5431,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F70" s="3" t="str">
+      <c r="F70" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G70" s="3" t="str">
+      <c r="G70" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H70" s="3" t="str">
+      <c r="H70" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I70" s="3" t="str">
+      <c r="I70" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="str">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Inventory Asset</v>
       </c>
-      <c r="B71" s="3" t="str">
+      <c r="B71" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C71" s="3" t="str">
+      <c r="C71" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>1120</v>
       </c>
-      <c r="D71" s="3" t="str">
+      <c r="D71" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCASSET</v>
       </c>
@@ -5469,37 +5469,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>287354.48025000002</v>
       </c>
-      <c r="F71" s="3" t="str">
+      <c r="F71" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G71" s="3" t="str">
+      <c r="G71" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H71" s="3" t="str">
+      <c r="H71" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I71" s="3" t="str">
+      <c r="I71" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="str">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Leasing interest charges</v>
       </c>
-      <c r="B72" s="3" t="str">
+      <c r="B72" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C72" s="3" t="str">
+      <c r="C72" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D72" s="3" t="str">
+      <c r="D72" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -5507,37 +5507,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F72" s="3" t="str">
+      <c r="F72" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G72" s="3" t="str">
+      <c r="G72" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H72" s="3" t="str">
+      <c r="H72" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I72" s="3" t="str">
+      <c r="I72" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="str">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Leave Liability</v>
       </c>
-      <c r="B73" s="3" t="str">
+      <c r="B73" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C73" s="3" t="str">
+      <c r="C73" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D73" s="3" t="str">
+      <c r="D73" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -5545,37 +5545,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>24952.657899999998</v>
       </c>
-      <c r="F73" s="3" t="str">
+      <c r="F73" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G73" s="3" t="str">
+      <c r="G73" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H73" s="3" t="str">
+      <c r="H73" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I73" s="3" t="str">
+      <c r="I73" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="str">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Leave Paid</v>
       </c>
-      <c r="B74" s="3" t="str">
+      <c r="B74" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C74" s="3" t="str">
+      <c r="C74" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D74" s="3" t="str">
+      <c r="D74" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -5583,37 +5583,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>25791.247899999998</v>
       </c>
-      <c r="F74" s="3" t="str">
+      <c r="F74" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G74" s="3" t="str">
+      <c r="G74" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H74" s="3" t="str">
+      <c r="H74" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I74" s="3" t="str">
+      <c r="I74" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="str">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Leave Provision</v>
       </c>
-      <c r="B75" s="3" t="str">
+      <c r="B75" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C75" s="3" t="str">
+      <c r="C75" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D75" s="3" t="str">
+      <c r="D75" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -5621,37 +5621,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F75" s="3" t="str">
+      <c r="F75" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G75" s="3" t="str">
+      <c r="G75" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H75" s="3" t="str">
+      <c r="H75" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v>0</v>
       </c>
-      <c r="I75" s="3" t="str">
+      <c r="I75" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="str">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Legal Fees</v>
       </c>
-      <c r="B76" s="3" t="str">
+      <c r="B76" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Legal Fees</v>
       </c>
-      <c r="C76" s="3" t="str">
+      <c r="C76" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>6280</v>
       </c>
-      <c r="D76" s="3" t="str">
+      <c r="D76" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -5659,37 +5659,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F76" s="3" t="str">
+      <c r="F76" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G76" s="3" t="str">
+      <c r="G76" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H76" s="3" t="str">
+      <c r="H76" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I76" s="3" t="str">
+      <c r="I76" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="str">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Light &amp; power</v>
       </c>
-      <c r="B77" s="3" t="str">
+      <c r="B77" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C77" s="3" t="str">
+      <c r="C77" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D77" s="3" t="str">
+      <c r="D77" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -5697,37 +5697,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F77" s="3" t="str">
+      <c r="F77" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G77" s="3" t="str">
+      <c r="G77" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H77" s="3" t="str">
+      <c r="H77" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I77" s="3" t="str">
+      <c r="I77" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="str">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Master Card</v>
       </c>
-      <c r="B78" s="3" t="str">
+      <c r="B78" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C78" s="3" t="str">
+      <c r="C78" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D78" s="3" t="str">
+      <c r="D78" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>CCARD</v>
       </c>
@@ -5735,37 +5735,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>1000</v>
       </c>
-      <c r="F78" s="3" t="str">
+      <c r="F78" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G78" s="3" t="str">
+      <c r="G78" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H78" s="3" t="str">
+      <c r="H78" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I78" s="3" t="str">
+      <c r="I78" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="str">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Mobile phone</v>
       </c>
-      <c r="B79" s="3" t="str">
+      <c r="B79" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C79" s="3" t="str">
+      <c r="C79" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D79" s="3" t="str">
+      <c r="D79" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -5773,37 +5773,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>2307.5500000000002</v>
       </c>
-      <c r="F79" s="3" t="str">
+      <c r="F79" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G79" s="3" t="str">
+      <c r="G79" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H79" s="3" t="str">
+      <c r="H79" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I79" s="3" t="str">
+      <c r="I79" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="str">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Motor Vehicle Expenses</v>
       </c>
-      <c r="B80" s="3" t="str">
+      <c r="B80" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C80" s="3" t="str">
+      <c r="C80" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D80" s="3" t="str">
+      <c r="D80" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -5811,37 +5811,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>100</v>
       </c>
-      <c r="F80" s="3" t="str">
+      <c r="F80" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G80" s="3" t="str">
+      <c r="G80" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H80" s="3" t="str">
+      <c r="H80" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I80" s="3" t="str">
+      <c r="I80" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="str">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Net Wages</v>
       </c>
-      <c r="B81" s="3" t="str">
+      <c r="B81" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C81" s="3" t="str">
+      <c r="C81" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D81" s="3" t="str">
+      <c r="D81" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -5849,37 +5849,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>80809.617700000003</v>
       </c>
-      <c r="F81" s="3" t="str">
+      <c r="F81" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G81" s="3" t="str">
+      <c r="G81" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H81" s="3" t="str">
+      <c r="H81" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I81" s="3" t="str">
+      <c r="I81" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="str">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>New Equity</v>
       </c>
-      <c r="B82" s="3" t="str">
+      <c r="B82" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>New Equity</v>
       </c>
-      <c r="C82" s="3" t="str">
+      <c r="C82" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>11252</v>
       </c>
-      <c r="D82" s="3" t="str">
+      <c r="D82" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EQUITY</v>
       </c>
@@ -5887,37 +5887,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F82" s="3" t="str">
+      <c r="F82" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G82" s="3" t="str">
+      <c r="G82" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H82" s="3" t="str">
+      <c r="H82" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I82" s="3" t="str">
+      <c r="I82" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="str">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>New Goods</v>
       </c>
-      <c r="B83" s="3" t="str">
+      <c r="B83" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>New Goods</v>
       </c>
-      <c r="C83" s="3" t="str">
+      <c r="C83" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D83" s="3" t="str">
+      <c r="D83" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>AR</v>
       </c>
@@ -5925,37 +5925,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="str">
+      <c r="F83" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G83" s="3" t="str">
+      <c r="G83" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H83" s="3" t="str">
+      <c r="H83" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I83" s="3" t="str">
+      <c r="I83" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="str">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>No ABN No Supplied Tax</v>
       </c>
-      <c r="B84" s="3" t="str">
+      <c r="B84" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C84" s="3" t="str">
+      <c r="C84" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D84" s="3" t="str">
+      <c r="D84" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -5963,37 +5963,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F84" s="3" t="str">
+      <c r="F84" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G84" s="3" t="str">
+      <c r="G84" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H84" s="3" t="str">
+      <c r="H84" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I84" s="3" t="str">
+      <c r="I84" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="str">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Office Expenses</v>
       </c>
-      <c r="B85" s="3" t="str">
+      <c r="B85" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C85" s="3" t="str">
+      <c r="C85" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D85" s="3" t="str">
+      <c r="D85" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -6001,37 +6001,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F85" s="3" t="str">
+      <c r="F85" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G85" s="3" t="str">
+      <c r="G85" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H85" s="3" t="str">
+      <c r="H85" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I85" s="3" t="str">
+      <c r="I85" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="str">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Office Furniture</v>
       </c>
-      <c r="B86" s="3" t="str">
+      <c r="B86" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C86" s="3" t="str">
+      <c r="C86" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D86" s="3" t="str">
+      <c r="D86" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCASSET</v>
       </c>
@@ -6039,37 +6039,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>84557.72</v>
       </c>
-      <c r="F86" s="3" t="str">
+      <c r="F86" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G86" s="3" t="str">
+      <c r="G86" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H86" s="3" t="str">
+      <c r="H86" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I86" s="3" t="str">
+      <c r="I86" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="str">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Office Phone</v>
       </c>
-      <c r="B87" s="3" t="str">
+      <c r="B87" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C87" s="3" t="str">
+      <c r="C87" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D87" s="3" t="str">
+      <c r="D87" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -6077,37 +6077,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F87" s="3" t="str">
+      <c r="F87" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G87" s="3" t="str">
+      <c r="G87" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H87" s="3" t="str">
+      <c r="H87" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I87" s="3" t="str">
+      <c r="I87" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="str">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Opening Bal Equity</v>
       </c>
-      <c r="B88" s="3" t="str">
+      <c r="B88" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C88" s="3" t="str">
+      <c r="C88" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>3000</v>
       </c>
-      <c r="D88" s="3" t="str">
+      <c r="D88" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EQUITY</v>
       </c>
@@ -6115,37 +6115,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>28772.74</v>
       </c>
-      <c r="F88" s="3" t="str">
+      <c r="F88" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G88" s="3" t="str">
+      <c r="G88" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H88" s="3" t="str">
+      <c r="H88" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I88" s="3" t="str">
+      <c r="I88" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="str">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Packaging</v>
       </c>
-      <c r="B89" s="3" t="str">
+      <c r="B89" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C89" s="3" t="str">
+      <c r="C89" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D89" s="3" t="str">
+      <c r="D89" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -6153,37 +6153,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>20</v>
       </c>
-      <c r="F89" s="3" t="str">
+      <c r="F89" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G89" s="3" t="str">
+      <c r="G89" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H89" s="3" t="str">
+      <c r="H89" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I89" s="3" t="str">
+      <c r="I89" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="str">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>PAYE Tax</v>
       </c>
-      <c r="B90" s="3" t="str">
+      <c r="B90" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C90" s="3" t="str">
+      <c r="C90" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D90" s="3" t="str">
+      <c r="D90" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -6191,37 +6191,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F90" s="3" t="str">
+      <c r="F90" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G90" s="3" t="str">
+      <c r="G90" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H90" s="3" t="str">
+      <c r="H90" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I90" s="3" t="str">
+      <c r="I90" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="str">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>PAYG Tax</v>
       </c>
-      <c r="B91" s="3" t="str">
+      <c r="B91" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C91" s="3" t="str">
+      <c r="C91" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D91" s="3" t="str">
+      <c r="D91" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -6229,37 +6229,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>33310.26</v>
       </c>
-      <c r="F91" s="3" t="str">
+      <c r="F91" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G91" s="3" t="str">
+      <c r="G91" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H91" s="3" t="str">
+      <c r="H91" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I91" s="3" t="str">
+      <c r="I91" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="str">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>PAYG Tax Paid</v>
       </c>
-      <c r="B92" s="3" t="str">
+      <c r="B92" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C92" s="3" t="str">
+      <c r="C92" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D92" s="3" t="str">
+      <c r="D92" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -6267,37 +6267,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>19774.740000000002</v>
       </c>
-      <c r="F92" s="3" t="str">
+      <c r="F92" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G92" s="3" t="str">
+      <c r="G92" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H92" s="3" t="str">
+      <c r="H92" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I92" s="3" t="str">
+      <c r="I92" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="str">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Payment Variation</v>
       </c>
-      <c r="B93" s="3" t="str">
+      <c r="B93" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Account use to track variations in FX typically</v>
       </c>
-      <c r="C93" s="3" t="str">
+      <c r="C93" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D93" s="3" t="str">
+      <c r="D93" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -6305,37 +6305,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>1133.5899999999999</v>
       </c>
-      <c r="F93" s="3" t="str">
+      <c r="F93" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G93" s="3" t="str">
+      <c r="G93" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H93" s="3" t="str">
+      <c r="H93" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I93" s="3" t="str">
+      <c r="I93" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="str">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Payroll Bank</v>
       </c>
-      <c r="B94" s="3" t="str">
+      <c r="B94" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C94" s="3" t="str">
+      <c r="C94" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>2346</v>
       </c>
-      <c r="D94" s="3" t="str">
+      <c r="D94" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>BANK</v>
       </c>
@@ -6343,37 +6343,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="str">
+      <c r="F94" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G94" s="3" t="str">
+      <c r="G94" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H94" s="3" t="str">
+      <c r="H94" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I94" s="3" t="str">
+      <c r="I94" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="str">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Payroll Bank Clearing</v>
       </c>
-      <c r="B95" s="3" t="str">
+      <c r="B95" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>666333</v>
       </c>
-      <c r="C95" s="3" t="str">
+      <c r="C95" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>666666</v>
       </c>
-      <c r="D95" s="3" t="str">
+      <c r="D95" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>BANK</v>
       </c>
@@ -6381,37 +6381,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>-210915.99460000001</v>
       </c>
-      <c r="F95" s="3" t="str">
+      <c r="F95" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G95" s="3" t="str">
+      <c r="G95" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v>Payroll Account</v>
       </c>
-      <c r="H95" s="3" t="str">
+      <c r="H95" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v>076998</v>
       </c>
-      <c r="I95" s="3" t="str">
+      <c r="I95" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v>346734395</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="str">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Payroll Expenses</v>
       </c>
-      <c r="B96" s="3" t="str">
+      <c r="B96" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C96" s="3" t="str">
+      <c r="C96" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D96" s="3" t="str">
+      <c r="D96" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -6419,37 +6419,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F96" s="3" t="str">
+      <c r="F96" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G96" s="3" t="str">
+      <c r="G96" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H96" s="3" t="str">
+      <c r="H96" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I96" s="3" t="str">
+      <c r="I96" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="str">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Payroll Liabilities</v>
       </c>
-      <c r="B97" s="3" t="str">
+      <c r="B97" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C97" s="3" t="str">
+      <c r="C97" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D97" s="3" t="str">
+      <c r="D97" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -6457,37 +6457,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F97" s="3" t="str">
+      <c r="F97" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G97" s="3" t="str">
+      <c r="G97" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H97" s="3" t="str">
+      <c r="H97" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I97" s="3" t="str">
+      <c r="I97" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="str">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Payroll Tax</v>
       </c>
-      <c r="B98" s="3" t="str">
+      <c r="B98" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C98" s="3" t="str">
+      <c r="C98" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D98" s="3" t="str">
+      <c r="D98" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -6495,37 +6495,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F98" s="3" t="str">
+      <c r="F98" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G98" s="3" t="str">
+      <c r="G98" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H98" s="3" t="str">
+      <c r="H98" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I98" s="3" t="str">
+      <c r="I98" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="str">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Petty Cash</v>
       </c>
-      <c r="B99" s="3" t="str">
+      <c r="B99" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C99" s="3" t="str">
+      <c r="C99" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>23432</v>
       </c>
-      <c r="D99" s="3" t="str">
+      <c r="D99" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>BANK</v>
       </c>
@@ -6533,37 +6533,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>30633</v>
       </c>
-      <c r="F99" s="3" t="str">
+      <c r="F99" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G99" s="3" t="str">
+      <c r="G99" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H99" s="3" t="str">
+      <c r="H99" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I99" s="3" t="str">
+      <c r="I99" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="str">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Plant Stock</v>
       </c>
-      <c r="B100" s="3" t="str">
+      <c r="B100" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C100" s="3" t="str">
+      <c r="C100" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D100" s="3" t="str">
+      <c r="D100" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -6571,37 +6571,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F100" s="3" t="str">
+      <c r="F100" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G100" s="3" t="str">
+      <c r="G100" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H100" s="3" t="str">
+      <c r="H100" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I100" s="3" t="str">
+      <c r="I100" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="str">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>POS Variance</v>
       </c>
-      <c r="B101" s="3" t="str">
+      <c r="B101" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C101" s="3" t="str">
+      <c r="C101" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D101" s="3" t="str">
+      <c r="D101" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>INC</v>
       </c>
@@ -6609,37 +6609,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="str">
+      <c r="F101" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G101" s="3" t="str">
+      <c r="G101" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H101" s="3" t="str">
+      <c r="H101" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I101" s="3" t="str">
+      <c r="I101" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="str">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Postage and Delivery</v>
       </c>
-      <c r="B102" s="3" t="str">
+      <c r="B102" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Postage and Delivery</v>
       </c>
-      <c r="C102" s="3" t="str">
+      <c r="C102" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>6250</v>
       </c>
-      <c r="D102" s="3" t="str">
+      <c r="D102" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -6647,37 +6647,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F102" s="3" t="str">
+      <c r="F102" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G102" s="3" t="str">
+      <c r="G102" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H102" s="3" t="str">
+      <c r="H102" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I102" s="3" t="str">
+      <c r="I102" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="str">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>PPS Tax</v>
       </c>
-      <c r="B103" s="3" t="str">
+      <c r="B103" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C103" s="3" t="str">
+      <c r="C103" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D103" s="3" t="str">
+      <c r="D103" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -6685,37 +6685,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F103" s="3" t="str">
+      <c r="F103" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G103" s="3" t="str">
+      <c r="G103" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H103" s="3" t="str">
+      <c r="H103" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I103" s="3" t="str">
+      <c r="I103" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="str">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Printing and stationery</v>
       </c>
-      <c r="B104" s="3" t="str">
+      <c r="B104" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C104" s="3" t="str">
+      <c r="C104" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D104" s="3" t="str">
+      <c r="D104" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -6723,37 +6723,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F104" s="3" t="str">
+      <c r="F104" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G104" s="3" t="str">
+      <c r="G104" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H104" s="3" t="str">
+      <c r="H104" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I104" s="3" t="str">
+      <c r="I104" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="str">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Property</v>
       </c>
-      <c r="B105" s="3" t="str">
+      <c r="B105" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C105" s="3" t="str">
+      <c r="C105" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D105" s="3" t="str">
+      <c r="D105" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -6761,37 +6761,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>3636.36</v>
       </c>
-      <c r="F105" s="3" t="str">
+      <c r="F105" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G105" s="3" t="str">
+      <c r="G105" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H105" s="3" t="str">
+      <c r="H105" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I105" s="3" t="str">
+      <c r="I105" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="str">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Rates</v>
       </c>
-      <c r="B106" s="3" t="str">
+      <c r="B106" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Rates</v>
       </c>
-      <c r="C106" s="3" t="str">
+      <c r="C106" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D106" s="3" t="str">
+      <c r="D106" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -6799,37 +6799,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>200</v>
       </c>
-      <c r="F106" s="3" t="str">
+      <c r="F106" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>FRE</v>
       </c>
-      <c r="G106" s="3" t="str">
+      <c r="G106" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H106" s="3" t="str">
+      <c r="H106" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I106" s="3" t="str">
+      <c r="I106" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="str">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Rent</v>
       </c>
-      <c r="B107" s="3" t="str">
+      <c r="B107" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C107" s="3" t="str">
+      <c r="C107" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D107" s="3" t="str">
+      <c r="D107" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -6837,37 +6837,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>15100</v>
       </c>
-      <c r="F107" s="3" t="str">
+      <c r="F107" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>INP</v>
       </c>
-      <c r="G107" s="3" t="str">
+      <c r="G107" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H107" s="3" t="str">
+      <c r="H107" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I107" s="3" t="str">
+      <c r="I107" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="str">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Repairs and maintenance</v>
       </c>
-      <c r="B108" s="3" t="str">
+      <c r="B108" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Repairs and Maintenance</v>
       </c>
-      <c r="C108" s="3" t="str">
+      <c r="C108" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>6300</v>
       </c>
-      <c r="D108" s="3" t="str">
+      <c r="D108" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -6875,37 +6875,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F108" s="3" t="str">
+      <c r="F108" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G108" s="3" t="str">
+      <c r="G108" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H108" s="3" t="str">
+      <c r="H108" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I108" s="3" t="str">
+      <c r="I108" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="str">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Repayment</v>
       </c>
-      <c r="B109" s="3" t="str">
+      <c r="B109" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C109" s="3" t="str">
+      <c r="C109" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D109" s="3" t="str">
+      <c r="D109" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -6913,37 +6913,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F109" s="3" t="str">
+      <c r="F109" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G109" s="3" t="str">
+      <c r="G109" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H109" s="3" t="str">
+      <c r="H109" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I109" s="3" t="str">
+      <c r="I109" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="str">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Retained Earnings</v>
       </c>
-      <c r="B110" s="3" t="str">
+      <c r="B110" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C110" s="3" t="str">
+      <c r="C110" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>3900</v>
       </c>
-      <c r="D110" s="3" t="str">
+      <c r="D110" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EQUITY</v>
       </c>
@@ -6951,37 +6951,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F110" s="3" t="str">
+      <c r="F110" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G110" s="3" t="str">
+      <c r="G110" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H110" s="3" t="str">
+      <c r="H110" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I110" s="3" t="str">
+      <c r="I110" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="str">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Retained Earnings Adjustment</v>
       </c>
-      <c r="B111" s="3" t="str">
+      <c r="B111" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Retained Earnings Adjustment</v>
       </c>
-      <c r="C111" s="3" t="str">
+      <c r="C111" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D111" s="3" t="str">
+      <c r="D111" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EQUITY</v>
       </c>
@@ -6989,37 +6989,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F111" s="3" t="str">
+      <c r="F111" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G111" s="3" t="str">
+      <c r="G111" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H111" s="3" t="str">
+      <c r="H111" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I111" s="3" t="str">
+      <c r="I111" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="str">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Reward Points</v>
       </c>
-      <c r="B112" s="3" t="str">
+      <c r="B112" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C112" s="3" t="str">
+      <c r="C112" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D112" s="3" t="str">
+      <c r="D112" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -7027,37 +7027,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F112" s="3" t="str">
+      <c r="F112" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G112" s="3" t="str">
+      <c r="G112" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H112" s="3" t="str">
+      <c r="H112" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I112" s="3" t="str">
+      <c r="I112" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="str">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Reward Points Expired</v>
       </c>
-      <c r="B113" s="3" t="str">
+      <c r="B113" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C113" s="3" t="str">
+      <c r="C113" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D113" s="3" t="str">
+      <c r="D113" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -7065,37 +7065,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>-6540</v>
       </c>
-      <c r="F113" s="3" t="str">
+      <c r="F113" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G113" s="3" t="str">
+      <c r="G113" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H113" s="3" t="str">
+      <c r="H113" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I113" s="3" t="str">
+      <c r="I113" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="str">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Reward Points Redeemed</v>
       </c>
-      <c r="B114" s="3" t="str">
+      <c r="B114" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C114" s="3" t="str">
+      <c r="C114" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D114" s="3" t="str">
+      <c r="D114" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -7103,37 +7103,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F114" s="3" t="str">
+      <c r="F114" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G114" s="3" t="str">
+      <c r="G114" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H114" s="3" t="str">
+      <c r="H114" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I114" s="3" t="str">
+      <c r="I114" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="str">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Reward Points Sold</v>
       </c>
-      <c r="B115" s="3" t="str">
+      <c r="B115" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C115" s="3" t="str">
+      <c r="C115" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D115" s="3" t="str">
+      <c r="D115" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -7141,37 +7141,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>6540</v>
       </c>
-      <c r="F115" s="3" t="str">
+      <c r="F115" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G115" s="3" t="str">
+      <c r="G115" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H115" s="3" t="str">
+      <c r="H115" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I115" s="3" t="str">
+      <c r="I115" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="str">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Riley</v>
       </c>
-      <c r="B116" s="3" t="str">
+      <c r="B116" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C116" s="3" t="str">
+      <c r="C116" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>1111</v>
       </c>
-      <c r="D116" s="3" t="str">
+      <c r="D116" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>AP</v>
       </c>
@@ -7179,37 +7179,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F116" s="3" t="str">
+      <c r="F116" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G116" s="3" t="str">
+      <c r="G116" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H116" s="3" t="str">
+      <c r="H116" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I116" s="3" t="str">
+      <c r="I116" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="str">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Round Fix Expense</v>
       </c>
-      <c r="B117" s="3" t="str">
+      <c r="B117" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C117" s="3" t="str">
+      <c r="C117" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D117" s="3" t="str">
+      <c r="D117" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -7217,37 +7217,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F117" s="3" t="str">
+      <c r="F117" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G117" s="3" t="str">
+      <c r="G117" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H117" s="3" t="str">
+      <c r="H117" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I117" s="3" t="str">
+      <c r="I117" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="str">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Sales</v>
       </c>
-      <c r="B118" s="3" t="str">
+      <c r="B118" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C118" s="3" t="str">
+      <c r="C118" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D118" s="3" t="str">
+      <c r="D118" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>INC</v>
       </c>
@@ -7255,37 +7255,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>1756299.7877549999</v>
       </c>
-      <c r="F118" s="3" t="str">
+      <c r="F118" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G118" s="3" t="str">
+      <c r="G118" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H118" s="3" t="str">
+      <c r="H118" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I118" s="3" t="str">
+      <c r="I118" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="str">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Staff amenities</v>
       </c>
-      <c r="B119" s="3" t="str">
+      <c r="B119" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C119" s="3" t="str">
+      <c r="C119" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D119" s="3" t="str">
+      <c r="D119" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -7293,37 +7293,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F119" s="3" t="str">
+      <c r="F119" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G119" s="3" t="str">
+      <c r="G119" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H119" s="3" t="str">
+      <c r="H119" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I119" s="3" t="str">
+      <c r="I119" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="str">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Staff training</v>
       </c>
-      <c r="B120" s="3" t="str">
+      <c r="B120" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C120" s="3" t="str">
+      <c r="C120" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D120" s="3" t="str">
+      <c r="D120" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -7331,37 +7331,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F120" s="3" t="str">
+      <c r="F120" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G120" s="3" t="str">
+      <c r="G120" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H120" s="3" t="str">
+      <c r="H120" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I120" s="3" t="str">
+      <c r="I120" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="str">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Standard Cost COGS Adj</v>
       </c>
-      <c r="B121" s="3" t="str">
+      <c r="B121" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C121" s="3" t="str">
+      <c r="C121" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D121" s="3" t="str">
+      <c r="D121" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>COGS</v>
       </c>
@@ -7369,37 +7369,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F121" s="3" t="str">
+      <c r="F121" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G121" s="3" t="str">
+      <c r="G121" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H121" s="3" t="str">
+      <c r="H121" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I121" s="3" t="str">
+      <c r="I121" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="str">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Standard Cost Purchase Adj</v>
       </c>
-      <c r="B122" s="3" t="str">
+      <c r="B122" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C122" s="3" t="str">
+      <c r="C122" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D122" s="3" t="str">
+      <c r="D122" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCASSET</v>
       </c>
@@ -7407,37 +7407,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F122" s="3" t="str">
+      <c r="F122" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G122" s="3" t="str">
+      <c r="G122" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H122" s="3" t="str">
+      <c r="H122" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I122" s="3" t="str">
+      <c r="I122" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="str">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Stock Adjustment</v>
       </c>
-      <c r="B123" s="3" t="str">
+      <c r="B123" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C123" s="3" t="str">
+      <c r="C123" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D123" s="3" t="str">
+      <c r="D123" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -7445,37 +7445,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>94660.017999999996</v>
       </c>
-      <c r="F123" s="3" t="str">
+      <c r="F123" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G123" s="3" t="str">
+      <c r="G123" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H123" s="3" t="str">
+      <c r="H123" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I123" s="3" t="str">
+      <c r="I123" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="str">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Subcontractors</v>
       </c>
-      <c r="B124" s="3" t="str">
+      <c r="B124" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C124" s="3" t="str">
+      <c r="C124" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D124" s="3" t="str">
+      <c r="D124" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -7483,37 +7483,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F124" s="3" t="str">
+      <c r="F124" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G124" s="3" t="str">
+      <c r="G124" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H124" s="3" t="str">
+      <c r="H124" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I124" s="3" t="str">
+      <c r="I124" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="str">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Sundries Paid</v>
       </c>
-      <c r="B125" s="3" t="str">
+      <c r="B125" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C125" s="3" t="str">
+      <c r="C125" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D125" s="3" t="str">
+      <c r="D125" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -7521,37 +7521,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>-100</v>
       </c>
-      <c r="F125" s="3" t="str">
+      <c r="F125" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G125" s="3" t="str">
+      <c r="G125" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H125" s="3" t="str">
+      <c r="H125" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I125" s="3" t="str">
+      <c r="I125" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="str">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Super</v>
       </c>
-      <c r="B126" s="3" t="str">
+      <c r="B126" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C126" s="3" t="str">
+      <c r="C126" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D126" s="3" t="str">
+      <c r="D126" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -7559,37 +7559,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F126" s="3" t="str">
+      <c r="F126" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G126" s="3" t="str">
+      <c r="G126" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H126" s="3" t="str">
+      <c r="H126" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I126" s="3" t="str">
+      <c r="I126" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="str">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Super Paid</v>
       </c>
-      <c r="B127" s="3" t="str">
+      <c r="B127" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C127" s="3" t="str">
+      <c r="C127" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D127" s="3" t="str">
+      <c r="D127" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -7597,37 +7597,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>12353.29</v>
       </c>
-      <c r="F127" s="3" t="str">
+      <c r="F127" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G127" s="3" t="str">
+      <c r="G127" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H127" s="3" t="str">
+      <c r="H127" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I127" s="3" t="str">
+      <c r="I127" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="str">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Superannuation</v>
       </c>
-      <c r="B128" s="3" t="str">
+      <c r="B128" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C128" s="3" t="str">
+      <c r="C128" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D128" s="3" t="str">
+      <c r="D128" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -7635,37 +7635,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>12353.29</v>
       </c>
-      <c r="F128" s="3" t="str">
+      <c r="F128" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G128" s="3" t="str">
+      <c r="G128" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H128" s="3" t="str">
+      <c r="H128" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I128" s="3" t="str">
+      <c r="I128" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="str">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Supplier Prepayments</v>
       </c>
-      <c r="B129" s="3" t="str">
+      <c r="B129" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C129" s="3" t="str">
+      <c r="C129" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D129" s="3" t="str">
+      <c r="D129" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCASSET</v>
       </c>
@@ -7673,37 +7673,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>4280</v>
       </c>
-      <c r="F129" s="3" t="str">
+      <c r="F129" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G129" s="3" t="str">
+      <c r="G129" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H129" s="3" t="str">
+      <c r="H129" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I129" s="3" t="str">
+      <c r="I129" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="str">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Tax Collected</v>
       </c>
-      <c r="B130" s="3" t="str">
+      <c r="B130" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C130" s="3" t="str">
+      <c r="C130" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D130" s="3" t="str">
+      <c r="D130" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -7711,37 +7711,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>156577.0601</v>
       </c>
-      <c r="F130" s="3" t="str">
+      <c r="F130" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G130" s="3" t="str">
+      <c r="G130" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H130" s="3" t="str">
+      <c r="H130" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I130" s="3" t="str">
+      <c r="I130" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="str">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Tax Paid</v>
       </c>
-      <c r="B131" s="3" t="str">
+      <c r="B131" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C131" s="3" t="str">
+      <c r="C131" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D131" s="3" t="str">
+      <c r="D131" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -7749,37 +7749,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>-54812.4905</v>
       </c>
-      <c r="F131" s="3" t="str">
+      <c r="F131" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G131" s="3" t="str">
+      <c r="G131" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H131" s="3" t="str">
+      <c r="H131" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I131" s="3" t="str">
+      <c r="I131" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="str">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Tax Payable</v>
       </c>
-      <c r="B132" s="3" t="str">
+      <c r="B132" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C132" s="3" t="str">
+      <c r="C132" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D132" s="3" t="str">
+      <c r="D132" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -7787,37 +7787,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F132" s="3" t="str">
+      <c r="F132" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G132" s="3" t="str">
+      <c r="G132" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H132" s="3" t="str">
+      <c r="H132" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I132" s="3" t="str">
+      <c r="I132" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="str">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Telephone</v>
       </c>
-      <c r="B133" s="3" t="str">
+      <c r="B133" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Telephone</v>
       </c>
-      <c r="C133" s="3" t="str">
+      <c r="C133" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>6340</v>
       </c>
-      <c r="D133" s="3" t="str">
+      <c r="D133" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -7825,37 +7825,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>9592.3603000000003</v>
       </c>
-      <c r="F133" s="3" t="str">
+      <c r="F133" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G133" s="3" t="str">
+      <c r="G133" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H133" s="3" t="str">
+      <c r="H133" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I133" s="3" t="str">
+      <c r="I133" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="str">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Termination Paid</v>
       </c>
-      <c r="B134" s="3" t="str">
+      <c r="B134" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C134" s="3" t="str">
+      <c r="C134" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D134" s="3" t="str">
+      <c r="D134" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -7863,37 +7863,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F134" s="3" t="str">
+      <c r="F134" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G134" s="3" t="str">
+      <c r="G134" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H134" s="3" t="str">
+      <c r="H134" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I134" s="3" t="str">
+      <c r="I134" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="str">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Termination Payable</v>
       </c>
-      <c r="B135" s="3" t="str">
+      <c r="B135" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C135" s="3" t="str">
+      <c r="C135" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D135" s="3" t="str">
+      <c r="D135" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -7901,37 +7901,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F135" s="3" t="str">
+      <c r="F135" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G135" s="3" t="str">
+      <c r="G135" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H135" s="3" t="str">
+      <c r="H135" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I135" s="3" t="str">
+      <c r="I135" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="str">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test</v>
       </c>
-      <c r="B136" s="3" t="str">
+      <c r="B136" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C136" s="3" t="str">
+      <c r="C136" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D136" s="3" t="str">
+      <c r="D136" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>AP</v>
       </c>
@@ -7939,37 +7939,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F136" s="3" t="str">
+      <c r="F136" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G136" s="3" t="str">
+      <c r="G136" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H136" s="3" t="str">
+      <c r="H136" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I136" s="3" t="str">
+      <c r="I136" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="str">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act</v>
       </c>
-      <c r="B137" s="3" t="str">
+      <c r="B137" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 1</v>
       </c>
-      <c r="C137" s="3" t="str">
+      <c r="C137" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>12345</v>
       </c>
-      <c r="D137" s="3" t="str">
+      <c r="D137" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>AP</v>
       </c>
@@ -7977,37 +7977,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F137" s="3" t="str">
+      <c r="F137" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G137" s="3" t="str">
+      <c r="G137" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H137" s="3" t="str">
+      <c r="H137" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I137" s="3" t="str">
+      <c r="I137" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="str">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 10</v>
       </c>
-      <c r="B138" s="3" t="str">
+      <c r="B138" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 10</v>
       </c>
-      <c r="C138" s="3" t="str">
+      <c r="C138" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>8765</v>
       </c>
-      <c r="D138" s="3" t="str">
+      <c r="D138" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>LTLIAB</v>
       </c>
@@ -8015,37 +8015,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F138" s="3" t="str">
+      <c r="F138" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G138" s="3" t="str">
+      <c r="G138" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H138" s="3" t="str">
+      <c r="H138" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I138" s="3" t="str">
+      <c r="I138" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="str">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 11</v>
       </c>
-      <c r="B139" s="3" t="str">
+      <c r="B139" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 11</v>
       </c>
-      <c r="C139" s="3" t="str">
+      <c r="C139" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>7658</v>
       </c>
-      <c r="D139" s="3" t="str">
+      <c r="D139" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OASSET</v>
       </c>
@@ -8053,37 +8053,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F139" s="3" t="str">
+      <c r="F139" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G139" s="3" t="str">
+      <c r="G139" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H139" s="3" t="str">
+      <c r="H139" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I139" s="3" t="str">
+      <c r="I139" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="str">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 12</v>
       </c>
-      <c r="B140" s="3" t="str">
+      <c r="B140" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 12</v>
       </c>
-      <c r="C140" s="3" t="str">
+      <c r="C140" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>6548</v>
       </c>
-      <c r="D140" s="3" t="str">
+      <c r="D140" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCASSET</v>
       </c>
@@ -8091,37 +8091,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F140" s="3" t="str">
+      <c r="F140" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G140" s="3" t="str">
+      <c r="G140" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H140" s="3" t="str">
+      <c r="H140" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I140" s="3" t="str">
+      <c r="I140" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="str">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 13</v>
       </c>
-      <c r="B141" s="3" t="str">
+      <c r="B141" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 13</v>
       </c>
-      <c r="C141" s="3" t="str">
+      <c r="C141" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>5678</v>
       </c>
-      <c r="D141" s="3" t="str">
+      <c r="D141" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -8129,37 +8129,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F141" s="3" t="str">
+      <c r="F141" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G141" s="3" t="str">
+      <c r="G141" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H141" s="3" t="str">
+      <c r="H141" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I141" s="3" t="str">
+      <c r="I141" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="str">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 14</v>
       </c>
-      <c r="B142" s="3" t="str">
+      <c r="B142" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 14</v>
       </c>
-      <c r="C142" s="3" t="str">
+      <c r="C142" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>4761</v>
       </c>
-      <c r="D142" s="3" t="str">
+      <c r="D142" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXEXP</v>
       </c>
@@ -8167,37 +8167,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F142" s="3" t="str">
+      <c r="F142" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G142" s="3" t="str">
+      <c r="G142" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H142" s="3" t="str">
+      <c r="H142" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I142" s="3" t="str">
+      <c r="I142" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="str">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 15</v>
       </c>
-      <c r="B143" s="3" t="str">
+      <c r="B143" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 15</v>
       </c>
-      <c r="C143" s="3" t="str">
+      <c r="C143" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>3456</v>
       </c>
-      <c r="D143" s="3" t="str">
+      <c r="D143" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXINC</v>
       </c>
@@ -8205,37 +8205,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F143" s="3" t="str">
+      <c r="F143" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G143" s="3" t="str">
+      <c r="G143" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H143" s="3" t="str">
+      <c r="H143" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I143" s="3" t="str">
+      <c r="I143" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="str">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 16</v>
       </c>
-      <c r="B144" s="3" t="str">
+      <c r="B144" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 16</v>
       </c>
-      <c r="C144" s="3" t="str">
+      <c r="C144" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>3456</v>
       </c>
-      <c r="D144" s="3" t="str">
+      <c r="D144" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXINC</v>
       </c>
@@ -8243,37 +8243,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F144" s="3" t="str">
+      <c r="F144" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G144" s="3" t="str">
+      <c r="G144" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H144" s="3" t="str">
+      <c r="H144" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I144" s="3" t="str">
+      <c r="I144" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="str">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 17</v>
       </c>
-      <c r="B145" s="3" t="str">
+      <c r="B145" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 17</v>
       </c>
-      <c r="C145" s="3" t="str">
+      <c r="C145" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>3456</v>
       </c>
-      <c r="D145" s="3" t="str">
+      <c r="D145" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXINC</v>
       </c>
@@ -8281,37 +8281,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F145" s="3" t="str">
+      <c r="F145" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G145" s="3" t="str">
+      <c r="G145" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H145" s="3" t="str">
+      <c r="H145" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I145" s="3" t="str">
+      <c r="I145" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="str">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 18</v>
       </c>
-      <c r="B146" s="3" t="str">
+      <c r="B146" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 18</v>
       </c>
-      <c r="C146" s="3" t="str">
+      <c r="C146" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>3456</v>
       </c>
-      <c r="D146" s="3" t="str">
+      <c r="D146" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXINC</v>
       </c>
@@ -8319,37 +8319,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F146" s="3" t="str">
+      <c r="F146" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G146" s="3" t="str">
+      <c r="G146" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H146" s="3" t="str">
+      <c r="H146" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I146" s="3" t="str">
+      <c r="I146" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="str">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 19</v>
       </c>
-      <c r="B147" s="3" t="str">
+      <c r="B147" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 19</v>
       </c>
-      <c r="C147" s="3" t="str">
+      <c r="C147" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>3456</v>
       </c>
-      <c r="D147" s="3" t="str">
+      <c r="D147" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXINC</v>
       </c>
@@ -8357,37 +8357,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F147" s="3" t="str">
+      <c r="F147" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G147" s="3" t="str">
+      <c r="G147" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H147" s="3" t="str">
+      <c r="H147" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I147" s="3" t="str">
+      <c r="I147" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="str">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 2</v>
       </c>
-      <c r="B148" s="3" t="str">
+      <c r="B148" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 2</v>
       </c>
-      <c r="C148" s="3" t="str">
+      <c r="C148" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>5678</v>
       </c>
-      <c r="D148" s="3" t="str">
+      <c r="D148" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>AR</v>
       </c>
@@ -8395,37 +8395,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F148" s="3" t="str">
+      <c r="F148" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G148" s="3" t="str">
+      <c r="G148" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H148" s="3" t="str">
+      <c r="H148" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I148" s="3" t="str">
+      <c r="I148" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="str">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 20</v>
       </c>
-      <c r="B149" s="3" t="str">
+      <c r="B149" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 20</v>
       </c>
-      <c r="C149" s="3" t="str">
+      <c r="C149" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>3456</v>
       </c>
-      <c r="D149" s="3" t="str">
+      <c r="D149" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXINC</v>
       </c>
@@ -8433,37 +8433,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F149" s="3" t="str">
+      <c r="F149" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G149" s="3" t="str">
+      <c r="G149" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H149" s="3" t="str">
+      <c r="H149" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I149" s="3" t="str">
+      <c r="I149" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="str">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 21</v>
       </c>
-      <c r="B150" s="3" t="str">
+      <c r="B150" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 21</v>
       </c>
-      <c r="C150" s="3" t="str">
+      <c r="C150" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>4500</v>
       </c>
-      <c r="D150" s="3" t="str">
+      <c r="D150" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -8471,37 +8471,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F150" s="3" t="str">
+      <c r="F150" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G150" s="3" t="str">
+      <c r="G150" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H150" s="3" t="str">
+      <c r="H150" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I150" s="3" t="str">
+      <c r="I150" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="str">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 3</v>
       </c>
-      <c r="B151" s="3" t="str">
+      <c r="B151" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 3</v>
       </c>
-      <c r="C151" s="3" t="str">
+      <c r="C151" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>6754</v>
       </c>
-      <c r="D151" s="3" t="str">
+      <c r="D151" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EQUITY</v>
       </c>
@@ -8509,37 +8509,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>-200</v>
       </c>
-      <c r="F151" s="3" t="str">
+      <c r="F151" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G151" s="3" t="str">
+      <c r="G151" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H151" s="3" t="str">
+      <c r="H151" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I151" s="3" t="str">
+      <c r="I151" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="str">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 4</v>
       </c>
-      <c r="B152" s="3" t="str">
+      <c r="B152" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 4</v>
       </c>
-      <c r="C152" s="3" t="str">
+      <c r="C152" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>34567</v>
       </c>
-      <c r="D152" s="3" t="str">
+      <c r="D152" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>BANK</v>
       </c>
@@ -8547,37 +8547,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F152" s="3" t="str">
+      <c r="F152" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G152" s="3" t="str">
+      <c r="G152" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H152" s="3" t="str">
+      <c r="H152" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I152" s="3" t="str">
+      <c r="I152" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="str">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 5</v>
       </c>
-      <c r="B153" s="3" t="str">
+      <c r="B153" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 5</v>
       </c>
-      <c r="C153" s="3" t="str">
+      <c r="C153" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>8954</v>
       </c>
-      <c r="D153" s="3" t="str">
+      <c r="D153" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>COGS</v>
       </c>
@@ -8585,37 +8585,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F153" s="3" t="str">
+      <c r="F153" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G153" s="3" t="str">
+      <c r="G153" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H153" s="3" t="str">
+      <c r="H153" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I153" s="3" t="str">
+      <c r="I153" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="str">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 6</v>
       </c>
-      <c r="B154" s="3" t="str">
+      <c r="B154" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 6</v>
       </c>
-      <c r="C154" s="3" t="str">
+      <c r="C154" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>2346</v>
       </c>
-      <c r="D154" s="3" t="str">
+      <c r="D154" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>CCARD</v>
       </c>
@@ -8623,37 +8623,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F154" s="3" t="str">
+      <c r="F154" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G154" s="3" t="str">
+      <c r="G154" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H154" s="3" t="str">
+      <c r="H154" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I154" s="3" t="str">
+      <c r="I154" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="str">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 7</v>
       </c>
-      <c r="B155" s="3" t="str">
+      <c r="B155" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 7</v>
       </c>
-      <c r="C155" s="3" t="str">
+      <c r="C155" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>985454</v>
       </c>
-      <c r="D155" s="3" t="str">
+      <c r="D155" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -8661,37 +8661,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F155" s="3" t="str">
+      <c r="F155" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G155" s="3" t="str">
+      <c r="G155" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H155" s="3" t="str">
+      <c r="H155" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I155" s="3" t="str">
+      <c r="I155" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="str">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 8</v>
       </c>
-      <c r="B156" s="3" t="str">
+      <c r="B156" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 8</v>
       </c>
-      <c r="C156" s="3" t="str">
+      <c r="C156" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>34567</v>
       </c>
-      <c r="D156" s="3" t="str">
+      <c r="D156" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>FIXASSET</v>
       </c>
@@ -8699,37 +8699,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>123</v>
       </c>
-      <c r="F156" s="3" t="str">
+      <c r="F156" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G156" s="3" t="str">
+      <c r="G156" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H156" s="3" t="str">
+      <c r="H156" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I156" s="3" t="str">
+      <c r="I156" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="str">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Test Act 9</v>
       </c>
-      <c r="B157" s="3" t="str">
+      <c r="B157" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Description 9</v>
       </c>
-      <c r="C157" s="3" t="str">
+      <c r="C157" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>9755</v>
       </c>
-      <c r="D157" s="3" t="str">
+      <c r="D157" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>INC</v>
       </c>
@@ -8737,37 +8737,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F157" s="3" t="str">
+      <c r="F157" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G157" s="3" t="str">
+      <c r="G157" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H157" s="3" t="str">
+      <c r="H157" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I157" s="3" t="str">
+      <c r="I157" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="str">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Tools</v>
       </c>
-      <c r="B158" s="3" t="str">
+      <c r="B158" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C158" s="3" t="str">
+      <c r="C158" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D158" s="3" t="str">
+      <c r="D158" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -8775,37 +8775,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>200</v>
       </c>
-      <c r="F158" s="3" t="str">
+      <c r="F158" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G158" s="3" t="str">
+      <c r="G158" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H158" s="3" t="str">
+      <c r="H158" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I158" s="3" t="str">
+      <c r="I158" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="str">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Tools and Machinery</v>
       </c>
-      <c r="B159" s="3" t="str">
+      <c r="B159" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Tools and Machinery</v>
       </c>
-      <c r="C159" s="3" t="str">
+      <c r="C159" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v>6935</v>
       </c>
-      <c r="D159" s="3" t="str">
+      <c r="D159" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -8813,37 +8813,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F159" s="3" t="str">
+      <c r="F159" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G159" s="3" t="str">
+      <c r="G159" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H159" s="3" t="str">
+      <c r="H159" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I159" s="3" t="str">
+      <c r="I159" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="str">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Travel expenses</v>
       </c>
-      <c r="B160" s="3" t="str">
+      <c r="B160" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C160" s="3" t="str">
+      <c r="C160" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D160" s="3" t="str">
+      <c r="D160" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -8851,37 +8851,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F160" s="3" t="str">
+      <c r="F160" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NCG</v>
       </c>
-      <c r="G160" s="3" t="str">
+      <c r="G160" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H160" s="3" t="str">
+      <c r="H160" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I160" s="3" t="str">
+      <c r="I160" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="str">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Undeposited Funds</v>
       </c>
-      <c r="B161" s="3" t="str">
+      <c r="B161" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Undeposited Funds</v>
       </c>
-      <c r="C161" s="3" t="str">
+      <c r="C161" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D161" s="3" t="str">
+      <c r="D161" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCASSET</v>
       </c>
@@ -8889,37 +8889,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>24596.618200000001</v>
       </c>
-      <c r="F161" s="3" t="str">
+      <c r="F161" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G161" s="3" t="str">
+      <c r="G161" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H161" s="3" t="str">
+      <c r="H161" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I161" s="3" t="str">
+      <c r="I161" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="str">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>UnInvoiced PO</v>
       </c>
-      <c r="B162" s="3" t="str">
+      <c r="B162" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C162" s="3" t="str">
+      <c r="C162" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D162" s="3" t="str">
+      <c r="D162" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -8927,37 +8927,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>803387.75</v>
       </c>
-      <c r="F162" s="3" t="str">
+      <c r="F162" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G162" s="3" t="str">
+      <c r="G162" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H162" s="3" t="str">
+      <c r="H162" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I162" s="3" t="str">
+      <c r="I162" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="str">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>UnInvoiced SO</v>
       </c>
-      <c r="B163" s="3" t="str">
+      <c r="B163" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C163" s="3" t="str">
+      <c r="C163" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D163" s="3" t="str">
+      <c r="D163" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>INC</v>
       </c>
@@ -8965,37 +8965,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F163" s="3" t="str">
+      <c r="F163" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G163" s="3" t="str">
+      <c r="G163" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H163" s="3" t="str">
+      <c r="H163" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I163" s="3" t="str">
+      <c r="I163" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="str">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Unsecured Loans</v>
       </c>
-      <c r="B164" s="3" t="str">
+      <c r="B164" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C164" s="3" t="str">
+      <c r="C164" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D164" s="3" t="str">
+      <c r="D164" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OASSET</v>
       </c>
@@ -9003,37 +9003,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F164" s="3" t="str">
+      <c r="F164" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G164" s="3" t="str">
+      <c r="G164" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H164" s="3" t="str">
+      <c r="H164" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I164" s="3" t="str">
+      <c r="I164" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="str">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Vehicle Depreciation</v>
       </c>
-      <c r="B165" s="3" t="str">
+      <c r="B165" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C165" s="3" t="str">
+      <c r="C165" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D165" s="3" t="str">
+      <c r="D165" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>FIXASSET</v>
       </c>
@@ -9041,37 +9041,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>-60613.833599999998</v>
       </c>
-      <c r="F165" s="3" t="str">
+      <c r="F165" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G165" s="3" t="str">
+      <c r="G165" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H165" s="3" t="str">
+      <c r="H165" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I165" s="3" t="str">
+      <c r="I165" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="str">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Vehicles</v>
       </c>
-      <c r="B166" s="3" t="str">
+      <c r="B166" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C166" s="3" t="str">
+      <c r="C166" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D166" s="3" t="str">
+      <c r="D166" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>FIXASSET</v>
       </c>
@@ -9079,37 +9079,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>105000</v>
       </c>
-      <c r="F166" s="3" t="str">
+      <c r="F166" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G166" s="3" t="str">
+      <c r="G166" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H166" s="3" t="str">
+      <c r="H166" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I166" s="3" t="str">
+      <c r="I166" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="str">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Visa</v>
       </c>
-      <c r="B167" s="3" t="str">
+      <c r="B167" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C167" s="3" t="str">
+      <c r="C167" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D167" s="3" t="str">
+      <c r="D167" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>CCARD</v>
       </c>
@@ -9117,37 +9117,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>10</v>
       </c>
-      <c r="F167" s="3" t="str">
+      <c r="F167" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G167" s="3" t="str">
+      <c r="G167" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H167" s="3" t="str">
+      <c r="H167" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I167" s="3" t="str">
+      <c r="I167" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="str">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Voucher Asset</v>
       </c>
-      <c r="B168" s="3" t="str">
+      <c r="B168" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C168" s="3" t="str">
+      <c r="C168" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D168" s="3" t="str">
+      <c r="D168" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCASSET</v>
       </c>
@@ -9155,37 +9155,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>989.5</v>
       </c>
-      <c r="F168" s="3" t="str">
+      <c r="F168" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>NT</v>
       </c>
-      <c r="G168" s="3" t="str">
+      <c r="G168" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H168" s="3" t="str">
+      <c r="H168" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I168" s="3" t="str">
+      <c r="I168" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="str">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Vouchers</v>
       </c>
-      <c r="B169" s="3" t="str">
+      <c r="B169" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v>Vouchers Not Redeemed</v>
       </c>
-      <c r="C169" s="3" t="str">
+      <c r="C169" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D169" s="3" t="str">
+      <c r="D169" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -9193,37 +9193,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>7995</v>
       </c>
-      <c r="F169" s="3" t="str">
+      <c r="F169" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G169" s="3" t="str">
+      <c r="G169" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H169" s="3" t="str">
+      <c r="H169" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I169" s="3" t="str">
+      <c r="I169" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="str">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Wastage</v>
       </c>
-      <c r="B170" s="3" t="str">
+      <c r="B170" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C170" s="3" t="str">
+      <c r="C170" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D170" s="3" t="str">
+      <c r="D170" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -9231,37 +9231,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F170" s="3" t="str">
+      <c r="F170" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G170" s="3" t="str">
+      <c r="G170" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H170" s="3" t="str">
+      <c r="H170" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I170" s="3" t="str">
+      <c r="I170" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="str">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Web</v>
       </c>
-      <c r="B171" s="3" t="str">
+      <c r="B171" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C171" s="3" t="str">
+      <c r="C171" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D171" s="3" t="str">
+      <c r="D171" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -9269,37 +9269,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F171" s="3" t="str">
+      <c r="F171" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G171" s="3" t="str">
+      <c r="G171" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H171" s="3" t="str">
+      <c r="H171" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I171" s="3" t="str">
+      <c r="I171" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="str">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>WET</v>
       </c>
-      <c r="B172" s="3" t="str">
+      <c r="B172" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C172" s="3" t="str">
+      <c r="C172" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D172" s="3" t="str">
+      <c r="D172" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -9307,37 +9307,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F172" s="3" t="str">
+      <c r="F172" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G172" s="3" t="str">
+      <c r="G172" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H172" s="3" t="str">
+      <c r="H172" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I172" s="3" t="str">
+      <c r="I172" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="str">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>WIP</v>
       </c>
-      <c r="B173" s="3" t="str">
+      <c r="B173" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C173" s="3" t="str">
+      <c r="C173" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D173" s="3" t="str">
+      <c r="D173" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCASSET</v>
       </c>
@@ -9345,37 +9345,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F173" s="3" t="str">
+      <c r="F173" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G173" s="3" t="str">
+      <c r="G173" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H173" s="3" t="str">
+      <c r="H173" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I173" s="3" t="str">
+      <c r="I173" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="str">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>WIP Labour</v>
       </c>
-      <c r="B174" s="3" t="str">
+      <c r="B174" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C174" s="3" t="str">
+      <c r="C174" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D174" s="3" t="str">
+      <c r="D174" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCASSET</v>
       </c>
@@ -9383,37 +9383,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F174" s="3" t="str">
+      <c r="F174" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G174" s="3" t="str">
+      <c r="G174" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H174" s="3" t="str">
+      <c r="H174" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I174" s="3" t="str">
+      <c r="I174" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="str">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Work Cover</v>
       </c>
-      <c r="B175" s="3" t="str">
+      <c r="B175" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C175" s="3" t="str">
+      <c r="C175" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D175" s="3" t="str">
+      <c r="D175" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -9421,37 +9421,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F175" s="3" t="str">
+      <c r="F175" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G175" s="3" t="str">
+      <c r="G175" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H175" s="3" t="str">
+      <c r="H175" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I175" s="3" t="str">
+      <c r="I175" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="str">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Work Cover Expenses</v>
       </c>
-      <c r="B176" s="3" t="str">
+      <c r="B176" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C176" s="3" t="str">
+      <c r="C176" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D176" s="3" t="str">
+      <c r="D176" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>EXP</v>
       </c>
@@ -9459,37 +9459,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F176" s="3" t="str">
+      <c r="F176" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v>FRE</v>
       </c>
-      <c r="G176" s="3" t="str">
+      <c r="G176" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H176" s="3" t="str">
+      <c r="H176" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I176" s="3" t="str">
+      <c r="I176" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="str">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Work Cover Liabilities</v>
       </c>
-      <c r="B177" s="3" t="str">
+      <c r="B177" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C177" s="3" t="str">
+      <c r="C177" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D177" s="3" t="str">
+      <c r="D177" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -9497,37 +9497,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F177" s="3" t="str">
+      <c r="F177" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G177" s="3" t="str">
+      <c r="G177" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H177" s="3" t="str">
+      <c r="H177" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I177" s="3" t="str">
+      <c r="I177" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="str">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>WorkCover</v>
       </c>
-      <c r="B178" s="3" t="str">
+      <c r="B178" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C178" s="3" t="str">
+      <c r="C178" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D178" s="3" t="str">
+      <c r="D178" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -9535,37 +9535,37 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F178" s="3" t="str">
+      <c r="F178" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G178" s="3" t="str">
+      <c r="G178" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H178" s="3" t="str">
+      <c r="H178" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I178" s="3" t="str">
+      <c r="I178" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="str">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" s="6" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountName]]</f>
         <v>Workers Compensation</v>
       </c>
-      <c r="B179" s="3" t="str">
+      <c r="B179" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Description]]</f>
         <v/>
       </c>
-      <c r="C179" s="3" t="str">
+      <c r="C179" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountNumber]]</f>
         <v/>
       </c>
-      <c r="D179" s="3" t="str">
+      <c r="D179" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.AccountType]]</f>
         <v>OCLIAB</v>
       </c>
@@ -9573,172 +9573,172 @@
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F179" s="3" t="str">
+      <c r="F179" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.Taxcode]]</f>
         <v/>
       </c>
-      <c r="G179" s="3" t="str">
+      <c r="G179" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountName]]</f>
         <v/>
       </c>
-      <c r="H179" s="3" t="str">
+      <c r="H179" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BSB]]</f>
         <v/>
       </c>
-      <c r="I179" s="3" t="str">
+      <c r="I179" s="7" t="str">
         <f>TAccountVS1List_IgnoreDates_true_orderby__22AccountName_20asc_22_Search_Active_2[[#This Row],[T.BankAccountNumber]]</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="4"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="4"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="4"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="4"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="4"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="4"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="4"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="4"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="4"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="4"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="4"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="4"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="4"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="4"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="4"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" s="6"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="7"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" s="6"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" s="6"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" s="6"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" s="6"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" s="6"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" s="6"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" s="6"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" s="6"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" s="6"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" s="6"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="7"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" s="6"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" s="6"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" s="6"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" s="6"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/downloads/Template Files/Accounts List Report Result.xlsx
+++ b/public/downloads/Template Files/Accounts List Report Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMG\Documents\Task\1-26~Excel Link\Template Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153BE5AE-D0B6-4297-B18C-94C48F05C19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF625A1-B2AF-4B42-BFB0-CC4986BF4B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2753,20 +2753,20 @@
   <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
